--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matis_herrmann_etu_unice_fr/Documents/Cours/S5/PS5/Citadelles/projet2-ps5-21-22-ps5-21-22-projet2-h/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E226C52-9B09-40E6-87AE-739006C131A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03545E87-65A1-4C32-966D-0B2F82E37BB4}"/>
   </bookViews>
@@ -90,29 +90,25 @@
     <t>Le Voleur peut voler le trésor du personnage de son choix. Il ne peut voler ni l'Assassin, ni un personnage assassiné. Le vol prendra effet au début du tour du personnage volé.</t>
   </si>
   <si>
-    <t>Au choix: Le ¨Magicien peut échanger la totalité de ses cartes avec le joueur de son choix.
-Ou: le Magicien peut échanger des cartes de sa main contre le même nombre de cartes de la pioche.</t>
-  </si>
-  <si>
-    <t>L'Évêque ne peut pas être attaqué par le Condottière.
-Chaque quartier religieux qu'il possède lui rapporte une pièce d'or.</t>
-  </si>
-  <si>
     <t>Le roi prend la carte Couronne et choisira en premier son personnage au prochain tour. Chaque quartier noble qu'il possède lui rapporte une pièce d'or.</t>
   </si>
   <si>
-    <t>Le Marchand reçoit une pièce d'or en plus au début de son tour.
-Chaque quartier marchand qu'il possède lui rapporte une pièce d'or.</t>
-  </si>
-  <si>
-    <t>L'Architecte pioche deux cartes quartier en plus.
-il peut bâtir jusqu'à trois quartiers.</t>
-  </si>
-  <si>
     <t>Le Condottiere peut détruire un quartier de son choix en payant à la banque le coût de construction du quartier moins un. Chaque quartier militaire qu'il possède lui rapporte une pièce d'or.</t>
   </si>
   <si>
     <t>L'Assassin peut tuer le personnage de son choix. Celui-ci ne pourra pas jouer ce tour-ci</t>
+  </si>
+  <si>
+    <t>Au choix: Le ¨Magicien peut échanger la totalité de ses cartes avec le joueur de son choix. Ou: le Magicien peut échanger des cartes de sa main contre le même nombre de cartes de la pioche.</t>
+  </si>
+  <si>
+    <t>L'Évêque ne peut pas être attaqué par le Condottière. Chaque quartier religieux qu'il possède lui rapporte une pièce d'or.</t>
+  </si>
+  <si>
+    <t>Le Marchand reçoit une pièce d'or en plus au début de son tour. Chaque quartier marchand qu'il possède lui rapporte une pièce d'or.</t>
+  </si>
+  <si>
+    <t>L'Architecte pioche deux cartes quartier en plus. il peut bâtir jusqu'à trois quartiers.</t>
   </si>
 </sst>
 </file>
@@ -148,10 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +469,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,129 +480,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matis_herrmann_etu_unice_fr/Documents/Cours/S5/PS5/Citadelles/projet2-ps5-21-22-ps5-21-22-projet2-h/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E226C52-9B09-40E6-87AE-739006C131A0}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68AD6D61-4494-4288-A0F4-A14D72A4A54D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03545E87-65A1-4C32-966D-0B2F82E37BB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Soldatesque</t>
   </si>
   <si>
-    <t>Assasin</t>
-  </si>
-  <si>
     <t>Voleur</t>
   </si>
   <si>
@@ -109,6 +106,21 @@
   </si>
   <si>
     <t>L'Architecte pioche deux cartes quartier en plus. il peut bâtir jusqu'à trois quartiers.</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La </t>
   </si>
 </sst>
 </file>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5458A47F-7758-463A-BF68-D15729B803E0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +491,7 @@
     <col min="4" max="4" width="159.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,117 +504,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unice-my.sharepoint.com/personal/matis_herrmann_etu_unice_fr/Documents/Cours/S5/PS5/Citadelles/projet2-ps5-21-22-ps5-21-22-projet2-h/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68AD6D61-4494-4288-A0F4-A14D72A4A54D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{EA873FCA-3AB6-4039-B52F-E8BC2F7155CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE855C31-1FE1-4EA3-B5E8-14B84AA18B6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03545E87-65A1-4C32-966D-0B2F82E37BB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">Le </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La </t>
   </si>
 </sst>
 </file>
@@ -641,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/Characters.xlsx
+++ b/data/Characters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -478,7 +478,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
